--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
@@ -710,7 +710,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -728,7 +728,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,18 +735,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -760,27 +753,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -924,7 +903,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,6 +931,20 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,19 +956,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1286,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="E37:J37"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1307,34 +1330,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="40"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1345,79 +1368,79 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="53">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45">
         <v>18</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="F5" s="44"/>
+      <c r="G5" s="45">
         <f>E5-F5</f>
         <v>18</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="84"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="73"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="57">
+      <c r="A6" s="46">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1427,23 +1450,23 @@
       <c r="E6" s="9">
         <v>18</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>18</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="85"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="57">
+      <c r="A7" s="46">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1453,23 +1476,23 @@
       <c r="E7" s="9">
         <v>26</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="85"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="57">
+      <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="56" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1479,23 +1502,23 @@
       <c r="E8" s="9">
         <v>26</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="59"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="85"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="57">
+      <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1505,23 +1528,23 @@
       <c r="E9" s="9">
         <v>18</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="85"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="57">
+      <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="56" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1531,23 +1554,23 @@
       <c r="E10" s="9">
         <v>20</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="59"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="85"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57">
+      <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1557,24 +1580,24 @@
       <c r="E11" s="9">
         <v>50</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="36"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="57">
+      <c r="A12" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1584,24 +1607,24 @@
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="28"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="36"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="57">
+      <c r="A13" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1611,25 +1634,25 @@
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="60"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="85"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="57">
+      <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1639,72 +1662,72 @@
       <c r="E14" s="9">
         <v>40</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="85"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="57">
+      <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>50</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="85"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="57">
+      <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="88" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96">
+      <c r="D16" s="83"/>
+      <c r="E16" s="84">
         <v>120</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="95">
+      <c r="F16" s="85"/>
+      <c r="G16" s="83">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="74"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1716,105 +1739,105 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="86">
+      <c r="A20" s="75">
         <f>E5*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89">
+      <c r="B20" s="77"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78">
         <v>0</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="93">
+      <c r="H20" s="81">
         <f>A20-F20</f>
         <v>12600000</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="82">
         <f>1-G20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="90">
+      <c r="A21" s="41"/>
+      <c r="B21" s="79">
         <v>43535</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="79">
         <v>43538</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="79">
         <v>43542</v>
       </c>
-      <c r="E21" s="91">
+      <c r="E21" s="115">
         <v>312480</v>
       </c>
-      <c r="F21" s="91">
+      <c r="F21" s="115">
         <v>413898</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="35">
         <f>F21/A20</f>
         <v>3.2849047619047618E-2</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="24">
         <f>H20-F21</f>
         <v>12186102</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="23">
         <f>I20-G21</f>
         <v>0.96715095238095239</v>
       </c>
@@ -1823,7 +1846,7 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43570</v>
       </c>
@@ -1833,170 +1856,189 @@
       <c r="D22" s="10">
         <v>43575</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="111">
         <v>245376</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="111">
         <v>254560</v>
       </c>
-      <c r="G22" s="46">
-        <f>F22/A20</f>
+      <c r="G22" s="35">
+        <f>F22/$A$20</f>
         <v>2.0203174603174605E-2</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="24">
         <f>H21-F22</f>
         <v>11931542</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="23">
         <f>I21-G22</f>
         <v>0.94694777777777783</v>
       </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="101">
+        <v>43778</v>
+      </c>
+      <c r="C23" s="101">
+        <v>43780</v>
+      </c>
+      <c r="D23" s="101">
+        <v>43782</v>
+      </c>
+      <c r="E23" s="110">
+        <v>428586</v>
+      </c>
+      <c r="F23" s="110">
+        <v>453212</v>
+      </c>
+      <c r="G23" s="35">
+        <f>F23/$A$20</f>
+        <v>3.5969206349206348E-2</v>
+      </c>
+      <c r="H23" s="24">
+        <f>H22-F23</f>
+        <v>11478330</v>
+      </c>
+      <c r="I23" s="23">
+        <f>I22-G23</f>
+        <v>0.91097857142857153</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="33"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="109"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="65">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="54">
         <f>SUM(E20:E30)</f>
-        <v>557856</v>
-      </c>
-      <c r="F31" s="64">
+        <v>986442</v>
+      </c>
+      <c r="F31" s="53">
         <f>SUM(F20:F30)</f>
-        <v>668458</v>
-      </c>
-      <c r="G31" s="28">
+        <v>1121670</v>
+      </c>
+      <c r="G31" s="22">
         <f>SUM(G20:G30)</f>
-        <v>5.3052222222222223E-2</v>
-      </c>
-      <c r="H31" s="24">
+        <v>8.9021428571428571E-2</v>
+      </c>
+      <c r="H31" s="19">
         <f>A20-F31</f>
-        <v>11931542</v>
-      </c>
-      <c r="I31" s="37">
+        <v>11478330</v>
+      </c>
+      <c r="I31" s="26">
         <f>1-G31</f>
-        <v>0.94694777777777772</v>
-      </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
+        <v>0.91097857142857142</v>
+      </c>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2011,12 +2053,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2025,14 +2067,14 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="1"/>
@@ -2043,27 +2085,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104">
+      <c r="A37" s="98">
         <f>A20-F31</f>
-        <v>11931542</v>
-      </c>
-      <c r="B37" s="105"/>
-      <c r="C37" s="87">
+        <v>11478330</v>
+      </c>
+      <c r="B37" s="99"/>
+      <c r="C37" s="76">
         <f>1-G31</f>
-        <v>0.94694777777777772</v>
-      </c>
-      <c r="D37" s="25">
+        <v>0.91097857142857142</v>
+      </c>
+      <c r="D37" s="20">
         <f>(C37/0.8)*100</f>
-        <v>118.3684722222222</v>
-      </c>
-      <c r="E37" s="101" t="s">
+        <v>113.87232142857142</v>
+      </c>
+      <c r="E37" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2101,113 +2143,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="97"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="71"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="70"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="71"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="70"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="71"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="70"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="71"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="71"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="70"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="71"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="60"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="71"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="60"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="75"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="64"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2215,40 +2257,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="69"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="103"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="97"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="70"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="70"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="73"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="73"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2261,23 +2303,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="102"/>
-      <c r="C60" s="103"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="102"/>
-      <c r="C67" s="103"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="97"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2285,6 +2322,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
@@ -840,8 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,19 +929,50 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -956,50 +985,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1310,7 +1314,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E31" sqref="E31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1330,29 +1334,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1414,7 +1418,7 @@
       <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -1433,14 +1437,14 @@
       <c r="I5" s="47"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="73"/>
+      <c r="L5" s="71"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="46">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1459,14 +1463,14 @@
       <c r="I6" s="48"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="74"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="46">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1485,14 +1489,14 @@
       <c r="I7" s="48"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="74"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1511,14 +1515,14 @@
       <c r="I8" s="48"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="74"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1537,14 +1541,14 @@
       <c r="I9" s="49"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="74"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1563,14 +1567,14 @@
       <c r="I10" s="48"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="74"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1589,7 +1593,7 @@
       <c r="I11" s="49"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="74"/>
+      <c r="L11" s="72"/>
       <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13">
@@ -1597,7 +1601,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1616,7 +1620,7 @@
       <c r="I12" s="49"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="74"/>
+      <c r="L12" s="72"/>
       <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13">
@@ -1624,7 +1628,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1645,14 +1649,14 @@
       <c r="I13" s="49"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="74"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1671,14 +1675,14 @@
       <c r="I14" s="49"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="74"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1697,37 +1701,37 @@
       <c r="I15" s="49"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="74"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="86" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82">
         <v>120</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="83">
+      <c r="F16" s="83"/>
+      <c r="G16" s="81">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="74"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="72"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1739,7 +1743,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1749,9 +1753,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A19" s="36" t="s">
@@ -1781,52 +1785,52 @@
       <c r="I19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="75">
+      <c r="A20" s="73">
         <f>E5*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78">
+      <c r="B20" s="75"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76">
         <v>0</v>
       </c>
       <c r="G20" s="35">
         <v>0</v>
       </c>
-      <c r="H20" s="81">
+      <c r="H20" s="79">
         <f>A20-F20</f>
         <v>12600000</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="80">
         <f>1-G20</f>
         <v>1</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
       <c r="A21" s="41"/>
-      <c r="B21" s="79">
+      <c r="B21" s="77">
         <v>43535</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="77">
         <v>43538</v>
       </c>
-      <c r="D21" s="79">
+      <c r="D21" s="77">
         <v>43542</v>
       </c>
-      <c r="E21" s="115">
+      <c r="E21" s="102">
         <v>312480</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="102">
         <v>413898</v>
       </c>
       <c r="G21" s="35">
@@ -1834,11 +1838,11 @@
         <v>3.2849047619047618E-2</v>
       </c>
       <c r="H21" s="24">
-        <f>H20-F21</f>
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
         <v>12186102</v>
       </c>
       <c r="I21" s="23">
-        <f>I20-G21</f>
+        <f t="shared" si="2"/>
         <v>0.96715095238095239</v>
       </c>
       <c r="J21" s="1"/>
@@ -1856,10 +1860,10 @@
       <c r="D22" s="10">
         <v>43575</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E22" s="98">
         <v>245376</v>
       </c>
-      <c r="F22" s="111">
+      <c r="F22" s="98">
         <v>254560</v>
       </c>
       <c r="G22" s="35">
@@ -1867,32 +1871,32 @@
         <v>2.0203174603174605E-2</v>
       </c>
       <c r="H22" s="24">
-        <f>H21-F22</f>
+        <f t="shared" si="2"/>
         <v>11931542</v>
       </c>
       <c r="I22" s="23">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.94694777777777783</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
-      <c r="B23" s="101">
+      <c r="B23" s="88">
         <v>43778</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="88">
         <v>43780</v>
       </c>
-      <c r="D23" s="101">
+      <c r="D23" s="88">
         <v>43782</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="97">
         <v>428586</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="97">
         <v>453212</v>
       </c>
       <c r="G23" s="35">
@@ -1900,111 +1904,111 @@
         <v>3.5969206349206348E-2</v>
       </c>
       <c r="H23" s="24">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>11478330</v>
       </c>
       <c r="I23" s="23">
-        <f>I22-G23</f>
+        <f t="shared" si="2"/>
         <v>0.91097857142857153</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="14"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="111"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="98"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="111"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="111"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="98"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="111"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="98"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="14"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="109"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2016,11 +2020,11 @@
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="54">
+      <c r="E31" s="114">
         <f>SUM(E20:E30)</f>
         <v>986442</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="115">
         <f>SUM(F20:F30)</f>
         <v>1121670</v>
       </c>
@@ -2036,9 +2040,9 @@
         <f>1-G31</f>
         <v>0.91097857142857142</v>
       </c>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2053,12 +2057,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2067,10 +2071,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="100"/>
+      <c r="B36" s="107"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2085,12 +2089,12 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="98">
+      <c r="A37" s="105">
         <f>A20-F31</f>
         <v>11478330</v>
       </c>
-      <c r="B37" s="99"/>
-      <c r="C37" s="76">
+      <c r="B37" s="106"/>
+      <c r="C37" s="74">
         <f>1-G31</f>
         <v>0.91097857142857142</v>
       </c>
@@ -2098,14 +2102,14 @@
         <f>(C37/0.8)*100</f>
         <v>113.87232142857142</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2143,113 +2147,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="97"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="59"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="60"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="59"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="60"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="59"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="60"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="58"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="60"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="59"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="60"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="59"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="59"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="60"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="60"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="59"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="60"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="64"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="62"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2257,40 +2261,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="97"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="104"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="59"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="59"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2303,18 +2307,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2322,11 +2331,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7E480-4354-43D6-B9BE-4A5095F9B849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -172,7 +180,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -320,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -678,30 +686,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -710,7 +694,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -910,24 +894,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,6 +939,26 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -985,25 +971,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1100,6 +1069,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1135,6 +1121,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1310,53 +1313,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:F31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="113" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1364,7 +1367,7 @@
       <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1376,7 +1379,7 @@
       <c r="K3" s="30"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="71"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="46">
         <f>A5+1</f>
         <v>2</v>
@@ -1465,7 +1468,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="46">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1491,7 +1494,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="72"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="46">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1517,7 +1520,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="72"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="46">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1543,7 +1546,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="72"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="46">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1569,7 +1572,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="72"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="46">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1596,7 +1599,7 @@
       <c r="L11" s="72"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="46">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1623,7 +1626,7 @@
       <c r="L12" s="72"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="46">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1651,7 +1654,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="72"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="46">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1677,7 +1680,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="72"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="46">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1703,33 +1706,33 @@
       <c r="K15" s="9"/>
       <c r="L15" s="72"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="110" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82">
+      <c r="D16" s="9"/>
+      <c r="E16" s="12">
         <v>120</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="81">
+      <c r="F16" s="21"/>
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="72"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="64"/>
       <c r="B17" s="63"/>
       <c r="C17" s="1"/>
@@ -1741,7 +1744,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="65" t="s">
         <v>10</v>
@@ -1757,7 +1760,7 @@
       <c r="K18" s="66"/>
       <c r="L18" s="66"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
@@ -1789,7 +1792,7 @@
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="73">
         <f>E5*700000</f>
         <v>12600000</v>
@@ -1816,7 +1819,7 @@
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="77">
         <v>43535</v>
@@ -1827,10 +1830,10 @@
       <c r="D21" s="77">
         <v>43542</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="96">
         <v>312480</v>
       </c>
-      <c r="F21" s="102">
+      <c r="F21" s="96">
         <v>413898</v>
       </c>
       <c r="G21" s="35">
@@ -1849,7 +1852,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43570</v>
@@ -1860,10 +1863,10 @@
       <c r="D22" s="10">
         <v>43575</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="92">
         <v>245376</v>
       </c>
-      <c r="F22" s="98">
+      <c r="F22" s="92">
         <v>254560</v>
       </c>
       <c r="G22" s="35">
@@ -1882,21 +1885,21 @@
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="88">
+      <c r="B23" s="82">
         <v>43778</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="82">
         <v>43780</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="82">
         <v>43782</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="91">
         <v>428586</v>
       </c>
-      <c r="F23" s="97">
+      <c r="F23" s="91">
         <v>453212</v>
       </c>
       <c r="G23" s="35">
@@ -1915,116 +1918,116 @@
       <c r="K23" s="68"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="98"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="23"/>
       <c r="J24" s="68"/>
       <c r="K24" s="69"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="98"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="92"/>
       <c r="I25" s="23"/>
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="98"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="92"/>
       <c r="I26" s="23"/>
       <c r="J26" s="68"/>
       <c r="K26" s="68"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="98"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="92"/>
       <c r="I27" s="23"/>
       <c r="J27" s="68"/>
       <c r="K27" s="68"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="92"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="86"/>
       <c r="J28" s="68"/>
       <c r="K28" s="68"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="92"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="68"/>
       <c r="K29" s="68"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="96"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="90"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="114">
+      <c r="E31" s="97">
         <f>SUM(E20:E30)</f>
         <v>986442</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="98">
         <f>SUM(F20:F30)</f>
         <v>1121670</v>
       </c>
@@ -2044,7 +2047,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2056,13 +2059,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="110" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2070,11 +2073,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="107" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="107"/>
+      <c r="B36" s="109"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2088,12 +2091,12 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="105">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="107">
         <f>A20-F31</f>
         <v>11478330</v>
       </c>
-      <c r="B37" s="106"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="74">
         <f>1-G31</f>
         <v>0.91097857142857142</v>
@@ -2102,16 +2105,16 @@
         <f>(C37/0.8)*100</f>
         <v>113.87232142857142</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2119,7 +2122,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2134,7 +2137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2146,7 +2149,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
@@ -2155,10 +2158,10 @@
       <c r="F41" s="56"/>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" s="105"/>
+      <c r="J41" s="106"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
@@ -2168,7 +2171,7 @@
       <c r="G42" s="59"/>
       <c r="H42" s="58"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
@@ -2178,7 +2181,7 @@
       <c r="G43" s="59"/>
       <c r="H43" s="58"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
@@ -2188,7 +2191,7 @@
       <c r="G44" s="59"/>
       <c r="H44" s="58"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="58"/>
       <c r="C45" s="58"/>
@@ -2198,7 +2201,7 @@
       <c r="G45" s="59"/>
       <c r="H45" s="58"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
@@ -2208,7 +2211,7 @@
       <c r="G46" s="59"/>
       <c r="H46" s="58"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="58"/>
       <c r="C47" s="60"/>
@@ -2218,7 +2221,7 @@
       <c r="G47" s="60"/>
       <c r="H47" s="60"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
@@ -2228,7 +2231,7 @@
       <c r="G48" s="59"/>
       <c r="H48" s="58"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
@@ -2238,7 +2241,7 @@
       <c r="G49" s="59"/>
       <c r="H49" s="58"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
@@ -2248,11 +2251,11 @@
       <c r="G50" s="59"/>
       <c r="H50" s="58"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="103"/>
       <c r="E51" s="62"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2260,7 +2263,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
@@ -2269,10 +2272,10 @@
       <c r="F52" s="56"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="104"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="105"/>
+      <c r="J52" s="106"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2281,10 +2284,10 @@
       <c r="F53" s="59"/>
       <c r="G53" s="59"/>
       <c r="H53" s="58"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2293,10 +2296,10 @@
       <c r="F54" s="60"/>
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
-      <c r="I54" s="108"/>
-      <c r="J54" s="108"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2306,24 +2309,19 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="103"/>
-      <c r="C67" s="104"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2331,6 +2329,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2344,12 +2347,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2358,24 +2361,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/Медофф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A7E480-4354-43D6-B9BE-4A5095F9B849}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25698C46-C96E-4C96-A514-77D6AB9661B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>№Поз</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -148,12 +139,6 @@
     <t>Фактическое количество деталей по акту приемки, шт.</t>
   </si>
   <si>
-    <t>Кол-во брака, шт</t>
-  </si>
-  <si>
-    <t>Формокомплект бутылки «Мерная 0,5»  тип XXI-КПА-30-500-5 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
-  </si>
-  <si>
     <t>Дата поставки  26.02.19 (c остаточным ресурсом 100 %)</t>
   </si>
   <si>
@@ -167,6 +152,36 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вес, гр. (ном. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>430</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> гр.)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Формокомплект бутылки «Медофф 0,5»  тип XXI-КПМ-30-1-500-2 </t>
+  </si>
+  <si>
+    <t>(владелец завод Первак)</t>
   </si>
 </sst>
 </file>
@@ -328,7 +343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -451,35 +466,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -664,9 +651,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -676,16 +661,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -694,7 +675,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,7 +686,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,7 +708,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,17 +717,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -768,13 +748,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,48 +757,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -866,32 +821,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -901,13 +850,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -916,10 +865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -934,7 +883,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -944,6 +893,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,7 +959,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -970,9 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1314,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1337,735 +1331,752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A1" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="32" t="s">
+      <c r="D5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="94"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
+        <v>1</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
+        <v>18</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41">
+        <f>E6-F6</f>
+        <v>18</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="93"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="42">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>18</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <v>18</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="93"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="42">
+        <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="J4" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
-        <v>18</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45">
-        <f>E5-F5</f>
-        <v>18</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="71"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="46">
-        <f>A5+1</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>18</v>
-      </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="72"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
-        <f t="shared" ref="A7:A16" si="1">A6+1</f>
+      <c r="B8" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>26</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="9">
+      <c r="F8" s="20"/>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="72"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
+      <c r="H8" s="91"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="93"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="B9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
         <v>26</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="9">
+      <c r="F9" s="20"/>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="72"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="H9" s="91"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="93"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="42">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="B10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <v>18</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="9">
+      <c r="F10" s="20"/>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="72"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="H10" s="91"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="93"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="42">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="B11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9">
+      <c r="F11" s="20"/>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="72"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="H11" s="91"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="93"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="42">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="B12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>50</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="9">
+      <c r="F12" s="26"/>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="H12" s="91"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="42">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="B13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>21</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="9">
+      <c r="F13" s="27"/>
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="H13" s="91"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="42">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="B14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="9">
+      <c r="F14" s="20"/>
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="72"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="H14" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="96"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="93"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="B15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>40</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="9">
+      <c r="F15" s="26"/>
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="72"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="H15" s="91"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="93"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="42">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="12">
+      <c r="B16" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="11">
         <v>50</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="9">
+      <c r="F16" s="20"/>
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="72"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="H16" s="91"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="93"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="12">
+      <c r="B17" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="11">
         <v>120</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="9">
+      <c r="F17" s="20"/>
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="72"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="93"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-    </row>
-    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="37" t="s">
+      <c r="I20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="73">
-        <f>E5*700000</f>
+      <c r="J20" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="61">
+        <f>E6*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76">
+      <c r="B21" s="63"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64">
         <v>0</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G21" s="32">
         <v>0</v>
       </c>
-      <c r="H20" s="79">
-        <f>A20-F20</f>
+      <c r="H21" s="67">
+        <f>A21-F21</f>
         <v>12600000</v>
       </c>
-      <c r="I20" s="80">
-        <f>1-G20</f>
+      <c r="I21" s="68">
+        <f>1-G21</f>
         <v>1</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
-      <c r="B21" s="77">
+      <c r="J21" s="97"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38"/>
+      <c r="B22" s="65">
         <v>43535</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C22" s="65">
         <v>43538</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D22" s="65">
         <v>43542</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E22" s="84">
         <v>312480</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F22" s="84">
         <v>413898</v>
       </c>
-      <c r="G21" s="35">
-        <f>F21/A20</f>
+      <c r="G22" s="32">
+        <f>F22/A21</f>
         <v>3.2849047619047618E-2</v>
       </c>
-      <c r="H21" s="24">
-        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+      <c r="H22" s="23">
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>12186102</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I22" s="22">
         <f t="shared" si="2"/>
         <v>0.96715095238095239</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10">
+      <c r="J22" s="97"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="9">
         <v>43570</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C23" s="9">
         <v>43572</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D23" s="9">
         <v>43575</v>
       </c>
-      <c r="E22" s="92">
+      <c r="E23" s="80">
         <v>245376</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F23" s="80">
         <v>254560</v>
       </c>
-      <c r="G22" s="35">
-        <f>F22/$A$20</f>
+      <c r="G23" s="32">
+        <f>F23/$A$21</f>
         <v>2.0203174603174605E-2</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H23" s="23">
         <f t="shared" si="2"/>
         <v>11931542</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I23" s="22">
         <f t="shared" si="2"/>
         <v>0.94694777777777783</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="82">
+      <c r="J23" s="98"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="70">
         <v>43778</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C24" s="70">
         <v>43780</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D24" s="70">
         <v>43782</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E24" s="79">
         <v>428586</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F24" s="79">
         <v>453212</v>
       </c>
-      <c r="G23" s="35">
-        <f>F23/$A$20</f>
+      <c r="G24" s="32">
+        <f>F24/$A$21</f>
         <v>3.5969206349206348E-2</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H24" s="23">
         <f t="shared" si="2"/>
         <v>11478330</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I24" s="22">
         <f t="shared" si="2"/>
         <v>0.91097857142857153</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="70">
+        <v>43995</v>
+      </c>
+      <c r="C25" s="70">
+        <v>43997</v>
+      </c>
+      <c r="D25" s="70">
+        <v>44006</v>
+      </c>
+      <c r="E25" s="80">
+        <v>437184</v>
+      </c>
+      <c r="F25" s="80">
+        <v>460568</v>
+      </c>
+      <c r="G25" s="32">
+        <f>F25/$A$21</f>
+        <v>3.6553015873015876E-2</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>11017762</v>
+      </c>
+      <c r="I25" s="22">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.87442555555555568</v>
+      </c>
+      <c r="J25" s="98">
+        <v>421</v>
+      </c>
+      <c r="K25" s="59"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="97">
-        <f>SUM(E20:E30)</f>
-        <v>986442</v>
-      </c>
-      <c r="F31" s="98">
-        <f>SUM(F20:F30)</f>
-        <v>1121670</v>
-      </c>
-      <c r="G31" s="22">
-        <f>SUM(G20:G30)</f>
-        <v>8.9021428571428571E-2</v>
-      </c>
-      <c r="H31" s="19">
-        <f>A20-F31</f>
-        <v>11478330</v>
-      </c>
-      <c r="I31" s="26">
-        <f>1-G31</f>
-        <v>0.91097857142857142</v>
-      </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="85">
+        <f>SUM(E21:E31)</f>
+        <v>1423626</v>
+      </c>
+      <c r="F32" s="86">
+        <f>SUM(F21:F31)</f>
+        <v>1582238</v>
+      </c>
+      <c r="G32" s="21">
+        <f>SUM(G21:G31)</f>
+        <v>0.12557444444444443</v>
+      </c>
+      <c r="H32" s="18">
+        <f>A21-F32</f>
+        <v>11017762</v>
+      </c>
+      <c r="I32" s="25">
+        <f>1-G32</f>
+        <v>0.87442555555555557</v>
+      </c>
+      <c r="J32" s="102"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2073,17 +2084,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="109"/>
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2092,35 +2099,45 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="107">
-        <f>A20-F31</f>
-        <v>11478330</v>
-      </c>
-      <c r="B37" s="108"/>
-      <c r="C37" s="74">
-        <f>1-G31</f>
-        <v>0.91097857142857142</v>
-      </c>
-      <c r="D37" s="20">
-        <f>(C37/0.8)*100</f>
-        <v>113.87232142857142</v>
-      </c>
-      <c r="E37" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
+      <c r="A37" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="113"/>
+      <c r="C37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="111">
+        <f>A21-F32</f>
+        <v>11017762</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="62">
+        <f>1-G32</f>
+        <v>0.87442555555555557</v>
+      </c>
+      <c r="D38" s="19">
+        <f>(C38/0.8)*100</f>
+        <v>109.30319444444443</v>
+      </c>
+      <c r="E38" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
@@ -2129,18 +2146,11 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2148,192 +2158,208 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="58"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="110"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="58"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="58"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="58"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="58"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="48"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="57"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="58"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="57"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="58"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="58"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="102"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="48"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="101"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="57"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="101"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="109"/>
+      <c r="C61" s="110"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="109"/>
+      <c r="C68" s="110"/>
     </row>
   </sheetData>
-  <sortState ref="B9:B16">
-    <sortCondition ref="B9"/>
+  <sortState ref="B10:B17">
+    <sortCondition ref="B10"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="B67:C67"/>
+  <mergeCells count="13">
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:L2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2341,7 +2367,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="38" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
